--- a/11.11shopping.xlsx
+++ b/11.11shopping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日百类" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>商品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,74 @@
   </si>
   <si>
     <t>购买链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产褥垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸奶器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫旗舰店直营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性内裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月子帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕妇牙刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防溢乳垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +453,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -411,6 +479,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -422,44 +639,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>